--- a/POITest/RunningMan.xlsx
+++ b/POITest/RunningMan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -32,25 +32,25 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Elaine</t>
+    <t>AngelaBaby</t>
   </si>
   <si>
     <t>跑了</t>
   </si>
   <si>
-    <t>Billy</t>
+    <t>邓超</t>
   </si>
   <si>
     <t>没跑</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Ledong</t>
+    <t>郑恺</t>
+  </si>
+  <si>
+    <t>王宝强</t>
+  </si>
+  <si>
+    <t>王祖蓝</t>
   </si>
 </sst>
 </file>
@@ -134,8 +134,12 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -150,8 +154,12 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -166,8 +174,12 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -182,8 +194,12 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -198,8 +214,12 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
